--- a/public/file/customer/coba2.xlsx
+++ b/public/file/customer/coba2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D405E851-E7B2-1145-8E66-18B4026856DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F706F970-2BCF-5043-8BCA-FFE40762B2A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15800" xr2:uid="{E7B4CCEE-2882-FC41-894A-C83EAC16EA0F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{E7B4CCEE-2882-FC41-894A-C83EAC16EA0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -397,77 +397,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356C7A13-BCBC-3043-B4BE-52162366400E}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1">
-        <v>999999999999</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>81293112671</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>664477338837</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>81293112672</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>554466738987</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>81293112673</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>987364678976</v>
-      </c>
-      <c r="D4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>81293112674</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>989482783849</v>
-      </c>
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>81293112675</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>812765347893</v>
-      </c>
-      <c r="D6" t="s">
+        <v>81293112676</v>
+      </c>
+      <c r="E6" t="s">
         <v>0</v>
       </c>
     </row>

--- a/public/file/customer/coba2.xlsx
+++ b/public/file/customer/coba2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F706F970-2BCF-5043-8BCA-FFE40762B2A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5201080-D9E8-864B-8C05-0B3581969480}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{E7B4CCEE-2882-FC41-894A-C83EAC16EA0F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>jl. RCM</t>
   </si>
@@ -46,6 +46,24 @@
   </si>
   <si>
     <t>Ainun</t>
+  </si>
+  <si>
+    <t>CV Berkah Berja</t>
+  </si>
+  <si>
+    <t>CV Bersama</t>
+  </si>
+  <si>
+    <t>CV Mutiara Survey</t>
+  </si>
+  <si>
+    <t>CV Abadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV Laksana </t>
+  </si>
+  <si>
+    <t>CV Jaya Karsa</t>
   </si>
 </sst>
 </file>
@@ -415,6 +433,9 @@
       <c r="B1">
         <v>81293112671</v>
       </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
@@ -426,6 +447,9 @@
       <c r="B2">
         <v>81293112672</v>
       </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
@@ -437,6 +461,9 @@
       <c r="B3">
         <v>81293112673</v>
       </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
       <c r="E3" t="s">
         <v>0</v>
       </c>
@@ -448,6 +475,9 @@
       <c r="B4">
         <v>81293112674</v>
       </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
       <c r="E4" t="s">
         <v>0</v>
       </c>
@@ -459,6 +489,9 @@
       <c r="B5">
         <v>81293112675</v>
       </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
       <c r="E5" t="s">
         <v>0</v>
       </c>
@@ -469,6 +502,9 @@
       </c>
       <c r="B6">
         <v>81293112676</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>0</v>

--- a/public/file/customer/coba2.xlsx
+++ b/public/file/customer/coba2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5201080-D9E8-864B-8C05-0B3581969480}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AC27BE-BB2F-6C4B-A940-B1F798BD6C98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{E7B4CCEE-2882-FC41-894A-C83EAC16EA0F}"/>
   </bookViews>
@@ -415,98 +415,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356C7A13-BCBC-3043-B4BE-52162366400E}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="B1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="C1">
         <v>81293112671</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>81293112672</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>81293112673</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>81293112674</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>81293112675</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>81293112676</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>0</v>
       </c>
     </row>
